--- a/chang_yong8/sprint2_base/행정구역별__인구수.xlsx
+++ b/chang_yong8/sprint2_base/행정구역별__인구수.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitey\Desktop\sprint2\sprint2_base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sprint2\KEPCO_sprint_3\chang_yong8\sprint2_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>행정구역(시군구)별</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>2022</t>
-  </si>
-  <si>
-    <t>총인구수 (명)</t>
   </si>
   <si>
     <t>전국</t>
@@ -217,6 +214,10 @@
   </si>
   <si>
     <t>제주도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행정구역별</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -305,7 +306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,6 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -605,16 +607,16 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -664,61 +666,29 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2">
         <v>49268928</v>
@@ -771,7 +741,7 @@
     </row>
     <row r="4" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2">
         <v>10192710</v>
@@ -824,7 +794,7 @@
     </row>
     <row r="5" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2">
         <v>3587439</v>
@@ -877,7 +847,7 @@
     </row>
     <row r="6" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2">
         <v>2493261</v>
@@ -930,7 +900,7 @@
     </row>
     <row r="7" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2">
         <v>2664576</v>
@@ -983,7 +953,7 @@
     </row>
     <row r="8" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2">
         <v>1413444</v>
@@ -1036,7 +1006,7 @@
     </row>
     <row r="9" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2">
         <v>1475659</v>
@@ -1089,7 +1059,7 @@
     </row>
     <row r="10" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2">
         <v>1099995</v>
@@ -1142,22 +1112,22 @@
     </row>
     <row r="11" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" s="2">
         <v>113117</v>
@@ -1195,7 +1165,7 @@
     </row>
     <row r="12" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2">
         <v>11106211</v>
@@ -1248,7 +1218,7 @@
     </row>
     <row r="13" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2">
         <v>1503806</v>
@@ -1301,7 +1271,7 @@
     </row>
     <row r="14" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2">
         <v>1506608</v>
@@ -1354,7 +1324,7 @@
     </row>
     <row r="15" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2">
         <v>1995531</v>
@@ -1407,7 +1377,7 @@
     </row>
     <row r="16" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2">
         <v>1862277</v>
@@ -1460,7 +1430,7 @@
     </row>
     <row r="17" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2">
         <v>1929836</v>
@@ -1513,7 +1483,7 @@
     </row>
     <row r="18" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2">
         <v>2681364</v>
@@ -1566,7 +1536,7 @@
     </row>
     <row r="19" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2">
         <v>3196953</v>
@@ -1619,7 +1589,7 @@
     </row>
     <row r="20" spans="1:17" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="2">
         <v>559258</v>
@@ -1690,117 +1660,117 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
